--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/3_fold/44.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/3_fold/44.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-13.01263453449054</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>6.295358207552783</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-1.488474661417701</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-13.10331822838808</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-4.598788846018171</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-11.86324177428046</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-13.18631828008743</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>6.234617221770029</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-1.61544634067561</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-13.42703166435239</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-4.527008167253835</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-11.70627887862699</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-13.45280863089186</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>6.141419746359627</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-1.810264383270108</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-13.83672270782633</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-4.465179496462122</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-11.5693348518495</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-13.80481926307407</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>6.018313967339965</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-2.067602114738365</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-14.33659831116302</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-4.353508433099698</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-11.40893229938073</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-14.21852317814909</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>5.873632704637561</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-2.370040783550599</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-14.84547652082696</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-4.258901800976133</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-11.25303208884537</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-14.68020311562159</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>5.71217318278175</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-2.707552372439435</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-15.36211653494005</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-4.166622424695308</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-10.98692381730767</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-15.15753010428635</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>5.545241546591092</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-3.056502754051715</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-15.93619571336643</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-4.057612779123779</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-10.76456771561699</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-15.64879455485336</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>5.373435676646765</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-3.415642131394367</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-16.48050017519237</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-3.950782312891897</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-10.43589675447814</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-16.16154865730886</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5.194114407749303</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-3.790491540654934</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-17.09142754661917</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-3.821998515260192</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-10.17856804971059</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-16.69926813577904</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5.006062203528232</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-4.183591913498737</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-17.6690253493495</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-3.737931446003877</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-9.802274890989334</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-17.25526569094755</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>4.811617758092799</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-4.590054492944057</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-18.38733642492018</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-3.590189896711404</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-9.396964800616363</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-17.84020193613125</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4.607052822954985</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-5.01767273122277</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-19.07508935788711</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-3.431411500894234</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-9.001255292307278</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-18.47169208383848</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4.386206974933839</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-5.47932424739463</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-19.82255927759317</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-3.264876113503241</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-8.606850138940665</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-19.13994223119278</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>4.152505355013815</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-5.967849198778679</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-20.60852575483845</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-3.091637690825151</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-8.175671445723829</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-19.83264348874432</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3.910252649718708</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-6.474249159195923</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-21.38332954365481</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-2.902546371933512</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-7.887571220168754</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-20.54900332201944</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3.659726025602197</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-6.99794474551155</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-22.21460340334683</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-2.657812337555865</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-7.520908438421235</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-21.28733399730826</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3.401515719873439</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-7.537702138276604</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-23.02107028242483</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-2.442794960975525</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-7.290938081990222</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-22.01536671266486</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>3.14690683485152</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-8.069931196936295</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-23.72093688336227</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-2.201034334454116</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-7.096599127198385</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-22.71544093380513</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2.902075643728733</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-8.581721169900494</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-24.51493234502314</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-1.989361744767183</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-6.98256407555265</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-23.38072134051124</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2.669412606745012</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-9.068075089356569</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-25.12862208559461</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-1.773025933012239</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-6.897102342456365</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-24.00175036503074</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>2.452225241172147</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-9.522078990758803</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-25.67921659781722</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-1.603757069211198</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-6.893636201276748</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-24.54494028314751</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>2.262259905151339</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-9.919178534082372</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-26.12788874554918</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-1.43454601067607</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-6.906206342689361</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-25.0051316250043</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>2.101320977579233</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-10.25560188362898</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-26.53453665448996</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-1.302160865792656</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-6.863669143055265</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-25.38990635161118</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1.966756881681418</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-10.53689183972349</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-26.76167132529268</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-1.205837496456756</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-6.941400752317352</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-25.6945960425528</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.860200265677809</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-10.75963554886263</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-26.9146477057458</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-1.158561499322015</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-6.963826387800376</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-25.90639986464016</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.786127859524151</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-10.91447494889545</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-26.96423449612979</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-1.13561597616617</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-7.026422182856915</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-26.02987294502935</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.742946636118943</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-11.00474007017254</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-26.95805765758332</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-1.128052988566989</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-7.042077752712128</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-26.08755795899078</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.722772931315035</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-11.04691075842852</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-26.80240494899168</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-1.100083158394413</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-7.080576086788313</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-26.07416926883411</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.72745524764614</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-11.03712294284213</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-26.62996971572761</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-1.120893054123288</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-7.071475397100857</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-25.98638242729582</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.758156216671565</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-10.97294628285269</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-26.37153876105787</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-1.1282438251298</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-7.09449030968987</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-25.83624052168027</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.810664108662543</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-10.8631848897098</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-26.1170973919889</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-1.113989680037887</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-7.117223825908045</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-25.64202032757656</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1.878587137430919</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-10.72120001883778</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-25.75208880154865</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-1.132665532045707</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-7.10866275514349</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-25.3909691569312</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.966385195530761</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-10.53766880463602</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-25.39814327310913</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-1.132296528567409</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-7.122014185303371</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-25.08112334193642</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>2.07474502033051</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-10.31115570575208</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-24.99334751003748</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-1.14164118532146</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-7.047808307040607</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-24.72625136375331</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>2.198851474319282</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-10.05172618437324</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-24.59462895908413</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-1.125660800781718</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-7.105802443797559</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-24.33433714953369</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>2.335912404414743</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-9.765216898582022</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-24.13382955795963</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-1.117713764498043</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-7.031374758983665</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-23.89119895839389</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>2.490887474046705</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-9.441260272249682</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-23.68843602540922</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-1.112626901097651</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-6.958622210212641</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-23.39540885428957</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>2.664276063526605</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-9.078812411275489</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-23.20076918799721</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-1.107965262735555</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-6.915955899302515</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-22.86692148122641</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>2.849099599564905</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-8.692461178499963</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-22.75391748681633</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-1.097789160375899</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-6.915926104392661</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-22.30649076184733</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>3.045094419005469</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-8.282757729839687</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-22.23928358668864</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-1.109293991998609</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-6.875514274994777</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-21.70718633547422</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>3.254684219805586</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-7.844635618056684</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-21.7476498060459</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-1.115883792312753</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-6.822502509274428</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-21.07064057677661</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>3.477298125017313</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-7.379288192317023</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-21.20320948999973</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-1.145281333368097</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-6.839392912615789</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-20.42300071014894</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>3.703791881217606</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-6.905830407666647</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-20.72700422030113</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-1.173507723898975</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-6.822651483823695</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-19.76221990312333</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>3.934881310266504</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-6.422765925143531</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-20.27465948014894</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-1.185105994170695</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-6.802069822206046</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-19.08738009103229</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>4.170887479358425</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-5.929423592636712</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-19.7177251043156</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-1.234651441882261</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-6.792892989971186</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-18.41172402830721</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>4.407179109061454</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-5.435484539271857</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-19.23049752888233</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-1.26310984532975</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-6.827835798138194</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-17.7564377627212</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>4.636346977389059</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-4.956436846868864</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-18.66710102064005</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-1.341640278705688</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-6.804099186621619</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-17.11830303419604</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>4.859516579930855</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-4.489927803117101</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-18.20371133238316</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-1.402160808411249</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-6.917521787342589</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-16.50050070160055</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>5.075575501114129</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-4.038282778134947</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-17.68647808817506</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-1.44683556857988</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-6.949167292152483</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-15.92135618815164</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>5.278114941616558</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-3.614898591244579</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-17.28351635707653</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-1.498882479784882</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-6.945889852068604</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-15.39158896848067</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>5.463386067867416</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-3.227611725301835</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-16.73499588594944</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-1.568818141157731</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-7.036429962022132</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-14.90459939003155</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>5.6336969219964</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-2.871597497578424</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-16.33289003643835</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-1.610429222232944</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-7.101379554957093</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-14.45939885409675</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>5.789393238486789</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-2.546133191981518</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-15.95761539542271</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-1.681953340638978</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-7.167371969736925</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-14.07291437344661</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>5.92455527258358</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-2.263593318450902</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-15.50719525672378</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-1.74128925831979</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-7.201977102258927</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-13.74276801799571</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>6.040014638189468</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-2.02223948877376</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-15.15250705854701</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-1.789869437275895</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-7.258822479713753</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-13.45961873266737</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>6.139038105557813</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-1.815242915114769</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-14.80178127512695</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-1.85760137186741</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-7.33460086710767</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-13.22131913382821</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>6.222376661479561</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-1.641033750479875</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-14.44357445264622</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-1.885113511030424</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-7.44679856597911</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-13.03926793084217</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>6.286043929215562</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-1.507945032968509</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-14.16527255403082</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-1.933600251337518</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-7.489352318340901</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-12.90220510220889</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>6.33397778334075</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-1.407745112385283</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-13.85931073617659</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-2.016505672304858</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-7.543479737907985</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-12.80112292376768</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>6.369328421032764</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-1.333848882800755</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-13.65412557888904</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-2.027197270939989</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-7.580789586135571</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-12.7381668297682</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>6.391345537242562</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-1.287824766110038</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-13.45107786133312</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-2.083116343108241</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-7.632563207824234</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-12.7177540917845</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>6.398484315965892</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-1.27290201319994</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-13.2013913899722</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-2.119642936341936</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-7.680489975596263</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-12.72502749711937</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>6.395940647826312</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-1.278219243583926</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-13.04208420285636</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-2.181672737784911</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-7.731743841635259</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-12.75667458004575</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>6.384872974179071</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-1.301354875815757</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-12.80933422428413</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-2.231374972382105</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-7.72601659785232</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-12.81908427671595</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>6.363046945006779</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-1.346979548181954</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-12.71324453431537</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-2.288515873664118</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-7.734716711529525</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-12.91287631756348</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>6.330245827089404</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-1.415546315247634</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-12.6529841306953</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-2.350993863881162</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-7.723510514879091</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-13.02589023294017</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>6.290722401315977</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-1.498165253281104</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-12.57423396770191</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-2.382724995602906</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-7.744515926325768</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-13.15917682619811</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>6.244109178885237</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-1.595604553143998</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-12.47910884269679</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-2.451628872571846</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-7.682996058569491</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-13.32492332978619</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>6.186144019374279</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-1.716773703540774</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-12.4603971880971</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-2.495895036614294</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-7.630639780865917</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-13.52056352100053</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>6.117724386712361</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-1.85979666474796</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-12.49597287990136</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-2.560537160964786</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-7.603350953985704</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-13.74034622759409</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>6.040861590999289</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-2.020469036432077</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-12.58448643285528</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-2.634239666857507</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-7.505974567493582</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-13.99185095997567</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>5.952904912489251</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-2.204331827403414</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-12.68081613194644</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-2.710450762920284</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-7.414441293878273</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-14.29027959452473</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>5.848537924167945</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-2.422498384884761</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-12.84474689102411</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-2.769941883780809</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-7.337888238828167</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-14.62958683341787</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>5.729874798250407</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-2.670549287740217</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-13.01962750025232</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-2.825613105973294</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-7.226081184330361</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-15.01136049370444</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>5.59636024055819</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-2.949645311242211</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-13.24605572910985</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-2.929365639758521</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-7.138772166823161</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-15.44960482673794</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>5.443096659612957</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-3.27002427761753</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-13.57780267796377</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-2.967252636373579</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-7.013620303256554</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-15.95895166039145</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>5.26496698676928</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-3.642382799547303</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-13.9315263111769</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-3.049485774179814</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-6.880582720215402</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-16.52525371914572</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>5.066918832168951</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-4.05637849684258</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-14.33317931328723</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-3.09051642703702</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-6.819579297563251</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-17.16051980282651</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>4.844752457160675</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-4.520790414856799</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-14.88112466821534</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-3.130210432101594</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-6.688955102220228</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-17.88202254967351</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>4.592427244240831</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-5.048245733381422</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-15.40437172590562</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-3.197688973746638</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-6.562700826989043</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-18.69716027226946</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>4.307355842486852</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-5.644152996371311</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-16.08164577001879</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-3.261336530782234</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-6.486415926127616</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-19.5918957977786</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>3.994447356735906</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-6.298250314316516</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-16.83180560328541</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-3.296987334644691</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-6.339639579098489</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-20.57973631421622</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>3.648978029376812</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-7.020412130783757</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-17.68140619728647</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-3.317862162316099</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-6.27491179271466</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-21.68121378853304</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>3.26376738472165</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-7.825648361140998</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-18.61673986120075</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-3.380494563859898</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-6.17129833842655</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-22.8892729013419</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>2.841282821507791</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-8.708801206958636</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-19.62502724137859</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-3.397950962312829</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-6.138388205220655</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-24.19213267153338</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>2.385644405223315</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-9.661258169988042</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-20.85562193906698</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-3.414058835178764</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-6.026346101989561</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-25.6034843382607</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>1.892064011568535</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-10.69302824456792</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-22.1554253050146</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-3.467196919759504</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-6.038260755385398</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-27.13896367224363</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>1.355073471235329</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-11.81554197682081</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-23.51548907458228</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-3.535474441038887</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-5.97465524393938</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-28.77105088137984</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.7842970544459166</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-13.00868099467885</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-25.11481023987122</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-3.547668184734813</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-6.084406449657298</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-30.49476119013213</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.1814780456912844</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-14.26880117290447</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-26.73323703699852</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-3.561773461470674</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-6.132601371618009</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-32.32252896179519</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>-0.4577321224866454</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-15.60499266545884</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-28.54245297254298</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-3.645308405539401</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-6.237532423030748</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-34.26120940237789</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-1.135730864821722</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-17.02226697768243</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-30.42899939447943</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-3.661898516856587</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-6.366468240148743</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-36.25976749017435</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-1.834670123528184</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-18.4833149049361</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-32.46878258412443</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-3.704184256651778</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-6.592088539741153</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-38.32226430807384</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-2.555970147675354</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-19.99110530600562</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-34.54231422631158</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-3.741598517051077</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-6.841322960665185</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-40.46466370837442</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-3.305213843839443</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-21.55730857138574</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-36.71741274777978</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-3.771162347227543</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-7.111761425768248</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-42.65251038653118</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-4.070351442156785</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-23.15673611556795</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-38.9925950732915</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-3.793418958310171</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-7.443070891701891</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-44.86943152847275</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-4.845657013218643</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-24.77741857613622</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-41.28900688495118</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-3.845600484517985</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-7.759840441627054</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-47.06078291827009</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-5.612020285471111</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-26.3794082433357</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-43.68805203152069</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-3.860107230703411</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-8.088852388956441</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-49.31333439600428</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-6.399786560396628</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-28.02613829720387</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-46.02806851940023</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-3.86002408614285</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-8.46655915062297</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-51.46501588149359</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-7.152276403760882</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-29.59912724042264</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-48.38292255236589</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-3.892027615282051</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-8.723225746282665</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-53.68979715117416</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-7.930330832556111</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-31.22555585538649</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-50.82522141841967</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-3.892468677379501</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-9.116644357078576</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-11.7417559117808</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>6.739812120544628</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-0.5593975488538471</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-11.81064576323285</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>6.71571984021497</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-0.6097595449786682</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-11.82472692999016</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>6.710795349745982</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-0.6200535962898118</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-11.76944388633156</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>6.730129033259969</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-0.5796388708720863</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-11.62941812500886</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>6.779099089430117</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-0.4772728953260778</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-11.39242472763319</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>6.861980838272712</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-0.3040186306024985</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-11.08126520850331</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>6.970800093999165</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-0.07654514697150702</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-10.69876589681805</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>7.10456842777814</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>0.2030813647251711</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-10.24232000573624</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>7.264197489700517</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>0.5367665986649156</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-9.727518325270639</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>7.444234841190356</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>0.9131128919169057</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-9.185678245410688</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>7.633728109395696</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>1.309225634606911</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-8.632863189799767</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>7.827059565473854</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>1.713361644506674</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-8.06911897125228</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>8.024213187686591</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>2.125487430111528</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-7.52420393403207</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>8.214781835402317</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>2.523848123514115</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-7.026577412794971</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>8.388812659920216</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>2.887638499105123</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-6.586136757934681</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>8.542844342407692</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>3.209623088790672</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-6.204879626277379</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>8.676178258796838</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>3.488341503511732</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-5.91050279917752</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>8.779128241872082</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>3.703545983027249</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-5.713380430762546</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>8.848066224158266</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>3.847652491387773</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-5.605975018006448</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>8.885628234505226</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>3.926171327863595</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-5.580162654946452</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>8.894655379631894</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>3.945041482189661</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-5.648971630574922</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>8.870591383337876</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>3.894738610418108</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-5.800825617823945</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>8.817484739138971</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>3.783725598251916</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-6.005300975070679</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>8.745975256632336</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>3.634243679910885</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-6.247231927800426</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>8.661366737224469</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>3.457379810312764</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-6.522039589240179</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>8.565260517271998</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>3.256481389300309</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-6.813709026369219</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>8.46325736739154</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>3.043256149982656</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-7.085446965635509</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>8.368224696090698</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>2.84460185249414</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-7.335140201992109</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>8.280901537164894</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>2.662063357538357</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-7.561827338347095</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>8.201624112100438</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>2.49634349543933</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-7.750781743781383</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>8.135542644231183</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>2.358208184741605</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-7.881643022344936</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>8.089777607132145</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>2.262541913658211</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-7.969696638156511</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>8.058983341337438</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>2.198170228064354</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-8.018767334766578</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>8.041822250788067</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>2.162297045288826</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-8.018356563008398</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>8.04196590661169</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>2.162597340401352</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-7.966431357147072</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>8.060125281170031</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>2.200557315074671</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-7.888960840427034</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>8.087218406888288</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>2.257192215290095</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-7.793114574594808</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>8.120737931989717</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>2.327260725624753</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-7.669476922114435</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>8.163976709836859</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>2.417646157496851</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-7.530436958004681</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>8.212602011267348</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>2.519291464985493</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-7.397564249393883</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>8.259070489229451</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>2.616428194055215</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-7.276080831311909</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>8.301555884424022</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>2.70523877067451</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-7.151384571654426</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>8.345164880239883</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>2.796398098402495</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-7.040242080079693</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>8.384033828381233</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>2.87764893015796</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-6.955328043297174</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>8.413730115061588</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>2.939725423302389</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-6.893243013916771</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>8.435442601016776</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>2.985112747315441</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-6.84643144844924</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>8.451813624239243</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>3.01933438996644</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-6.837135638828813</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>8.455064571171858</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>3.026130101064857</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-6.868969900493598</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>8.443931437046153</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>3.002857631625519</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-6.928833756498777</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>8.422995743760548</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>2.959094098672512</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-7.009802382254382</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>8.394679253181835</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>2.899901902280944</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-7.125889068234682</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>8.354081212654416</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>2.815036612165574</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-7.27315186662352</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>8.30258020711976</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>2.707379993295509</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-7.428260807316066</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>8.248335234862825</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>2.59398744409659</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-7.590317949743654</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>8.191660325242704</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>2.475515404936829</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-7.767056191717103</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>8.129851115600864</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>2.346310732989327</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-7.952997152039951</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>8.064823515069868</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>2.210378404411984</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-8.125673846735326</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>8.004434716904219</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>2.084142930742135</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-8.293767703324434</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>7.945648636962435</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>1.961257745541251</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-8.461986720655354</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>7.886818785585317</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>1.838281061452486</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-8.618703170668367</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>7.832011632334158</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>1.723713340926273</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-8.748600818854104</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>7.786583597750107</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>1.62875153281283</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-8.867532019416714</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>7.744990768566968</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>1.541806757412591</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-8.975007549165099</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>7.707404236781822</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>1.463236661838086</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-9.055725131671895</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>7.679175541490769</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>1.404227990869453</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-9.104905134329393</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>7.661976224237742</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>1.368274899796533</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-9.138146185081839</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>7.650351105351578</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>1.343973995760692</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-9.154400535993986</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>7.644666605087782</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>1.332091235957983</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-9.133034873374291</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>7.65213864229519</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>1.347710625394557</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-9.078918577440364</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>7.671064288737472</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>1.387272398698873</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-9.003137631047837</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>7.697566534941417</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>1.442672136804158</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-8.901238842754376</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>7.733202758870962</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>1.517165349853558</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-8.756447169261822</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>7.783839558249324</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>1.623015450349326</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-8.584646452167224</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>7.843922007983739</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>1.748610539701226</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-8.393815342737705</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>7.910659800083572</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>1.888117816767627</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-8.175456250907757</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>7.98702472673112</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>2.047749453427683</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-7.919859414392211</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>8.076412503114874</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>2.234603781297321</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-7.651282201260392</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>8.170339799698368</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>2.430947426723441</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-7.369072063043858</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>8.269034826882688</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>2.637257435929054</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-7.061497699105448</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>8.376600275813546</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>2.862109988202905</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-6.728930606402225</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>8.492906225920025</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>3.10523350031586</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-6.392695727184297</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>8.610494880794173</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>3.351038351499037</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-6.055372432777707</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>8.728464178147403</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>3.597638889715328</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-5.703057167715537</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>8.851676493915031</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>3.855199323360997</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-5.351125710800281</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>8.974754583620717</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>4.112479173669639</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-5.019878790693353</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>9.090598840638837</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>4.354637572260394</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-4.714219207614893</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>9.197494649030842</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>4.578090322034805</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-4.430492697233364</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>9.296719984562662</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>4.785508876657305</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-4.198803032669661</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>9.377746902613691</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>4.954885842102491</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-4.042148029758721</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>9.432532566475958</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>5.0694086416621</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-3.970250942533937</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>9.457676542602991</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>5.121969080563911</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-3.993610357161947</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>9.449507246927467</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>5.104892156689387</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-4.151294862490011</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>9.394361543664468</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>4.989616738338349</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-4.457755933427613</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>9.287185437525025</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>4.76557806004754</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-4.920427279627656</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>9.125379198460777</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>4.427341700797879</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-5.529676714672866</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>8.912311411690901</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>3.981949280287991</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-6.326714306446545</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>8.63357001960572</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>3.399274136385547</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-7.266966807155941</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>8.30474325702345</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>2.711901587323837</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-8.38162455773371</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>7.914923182912307</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>1.897029902571108</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-9.555686634865138</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>7.504328122965678</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>1.038730624339313</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-10.95731678374121</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>7.014147555676685</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>0.01406747529392395</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-36.3280895084817</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>-1.858563820249161</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-18.53326178606168</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-35.56722210371733</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>-1.592471929747113</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-17.97702889424138</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-34.74922386610547</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>-1.306400143637565</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-17.37903044883334</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-33.94219636106014</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>-1.024165061466882</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-16.78905216865073</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-33.15854431960883</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>-0.7501048876444213</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-16.21616254495562</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-32.42536481043339</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>-0.4936960568123577</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-15.68017091742843</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-31.72405940005551</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>-0.2484342920183271</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-15.16748088231711</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-31.04686281606253</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>-0.01160390850094225</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-14.67241562930906</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-30.39482612048842</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.2164275144718332</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-14.19574353837562</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-29.75599490634745</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.439840693191366</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-13.72872532810448</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-29.10700797661672</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.6668055466754639</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-13.25428277159952</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-28.42932462308403</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.9038061640946381</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-12.75886166522331</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-27.73466227172164</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>1.146744706575455</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-12.25102804517666</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-27.01106971261332</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>1.399800772324485</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-11.72204496726821</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-26.24771869001333</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>1.666761238035602</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-11.16399642409758</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-25.4460937127924</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>1.947106938648754</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-10.57796766738791</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-24.6235394970899</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>2.234772049450144</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-9.976638569552701</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-23.78303201910374</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>2.528715806796021</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-9.362184721024905</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-22.93206583788286</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>2.826317200279945</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-8.740085026836597</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-22.09336682286334</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>3.119628498768099</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-8.126953257003965</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-21.28882090412657</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>3.400995716198937</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-7.538789143021768</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-20.52763346506607</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>3.667199529659374</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-6.982322289803069</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-19.82106241098258</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>3.91430280465553</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-6.465782800493378</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-19.19501000812753</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>4.133246954958093</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-6.008106553238506</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-18.66138221514976</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>4.319868207713511</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-5.617997411244667</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-18.22216739917986</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>4.473471187662604</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-5.296908972329461</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-17.87735633675783</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>4.594059120450066</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-5.044834493673053</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-17.6377422055335</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>4.677857396955593</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-4.869664338798049</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-17.4937995160841</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>4.728197288137295</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-4.76443488895241</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-17.43301831569126</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>4.749453796719788</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-4.72000073044974</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-17.44809248350039</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>4.744182032171907</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-4.731020716191998</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-17.53432568152972</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>4.714024406094115</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-4.794061583510564</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-17.67302183639007</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>4.665519342240599</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-4.895455548896974</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-17.8527062643341</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>4.602679787245846</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-5.026814033101372</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-18.06963073351622</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>4.526816579360501</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-5.185396887412391</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-18.31904908338885</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>4.439589554220601</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-5.367734426323879</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-18.58723026533161</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>4.345800758362905</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-5.563788552745547</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-18.87288658955869</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>4.245900524929997</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-5.772617899746941</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-19.18020172783818</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>4.138425732853691</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-5.997280944838608</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-19.50724123152468</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>4.024052900925454</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-6.236363507366498</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-19.84871268722833</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>3.904632901288577</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-6.485996563127313</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-20.2091617408753</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>3.77857602263401</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-6.749503211208833</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-20.59631122440659</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>3.643181422556964</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-7.032529235773563</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-21.00417800911999</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>3.500541531377778</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-7.330700664485029</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-21.42786117073019</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>3.35237030897976</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-7.640434671648858</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-21.86869234395672</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>3.198202053720607</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-7.962704750184107</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-22.32702503944989</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>3.037913135232312</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-8.297769334412036</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-22.78651121899019</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>2.877220818269009</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-8.633677174328387</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-23.24313020589041</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>2.717531220971779</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-8.967488950142627</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-23.69637278902958</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>2.559022425551789</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-9.298832402545713</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-24.14196761156928</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>2.403188218454652</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-9.624584951767035</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-24.56291900903764</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>2.255972353429494</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-9.932321899970423</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-24.95815623759077</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>2.117749292901538</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-10.22126047877737</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-25.33225038744929</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>1.986920427138209</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-10.49474238835307</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-25.6789038620421</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>1.865688162717484</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-10.74816376430493</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-25.98807738571021</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>1.757563452826011</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-10.97418538392923</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-26.26120221642573</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>1.662045755401906</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-11.1738535698254</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-26.5069307581044</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>1.576109136490184</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-11.35349367069558</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-26.71736726000008</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>1.502514911965082</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-11.50733348990854</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-26.88994459096906</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>1.442160863457044</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-11.63349632362493</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-27.03307977114913</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>1.392103375840972</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-11.73813544299611</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-27.15724164721317</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>1.348681265597739</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-11.8289041090534</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-27.25285974907482</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>1.31524153440244</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-11.89880581988479</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-27.3239703566692</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>1.290372607318623</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-11.95079130205112</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-27.38230073077301</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>1.269973206027696</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-11.99343378149703</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-27.4327536923986</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>1.252328707319622</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-12.03031747052112</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-27.46549101497749</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>1.240879753138586</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-12.05425012356222</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-27.48160370529044</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>1.235244794669343</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-12.0660293222395</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-27.49384400592556</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>1.230964095146777</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-12.07497760649558</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-27.49754481861415</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>1.229669840407336</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-12.07768308938389</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-27.48360533031805</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>1.234544782835037</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-12.06749261225623</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-27.45307604630803</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>1.245221537874133</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-12.04517414806159</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-27.41738396030343</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>1.257703837130815</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-12.01908141220628</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-27.36697873164989</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>1.275331642579731</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-11.98223261842005</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-27.29744656714904</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>1.299648553761465</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-11.93140105868619</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-27.21659815404812</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>1.327923003358601</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-11.87229674387836</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-27.13392521477815</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>1.356835529464935</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-11.81185860735487</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-27.03831516474079</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>1.390272444762043</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-11.74196278281783</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-26.93175129018468</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>1.427540150885739</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-11.66405915370091</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-26.82592176849748</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>1.46455103782917</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-11.58669237399734</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-26.72424121529415</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>1.50011094019816</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-11.51235870193303</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-26.61744296196018</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>1.537460613681351</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-11.43428372997165</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-26.50421340756293</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>1.5770594531133</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-11.3515071488124</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-26.39701305846686</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>1.614549748235468</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-11.27313822433426</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-26.28921611222251</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>1.652248686364363</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-11.19433315690276</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-26.17057613531865</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>1.693739668296024</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-11.1076012808551</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-26.03819792434344</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>1.740035209673014</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-11.01082605478592</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-25.89704560827726</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>1.789399246554611</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-10.90763651024637</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-25.73186327938485</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>1.847167101896138</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-10.78687980033594</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-25.5300003302031</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>1.917762968447587</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-10.63930768557369</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-25.28830181109369</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>2.002290200759878</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-10.46261373681064</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-25.00492407534881</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>2.101393562210744</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-10.25545015424178</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-24.66374586127494</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>2.220711008867751</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-10.00603147307332</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-24.25857121614452</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>2.362409400244679</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-9.709828135748147</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-23.79254053341205</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>2.525390472404877</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-9.36913593010221</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-23.27365885662546</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>2.706854687402725</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-8.989806951380945</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-22.69126154350638</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>2.910531702741767</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-8.564044801976058</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-22.06584430842962</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>3.129253721048854</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-8.106832894772946</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-21.39798635480141</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>3.362818182287398</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-7.618594657012129</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-20.73614437893755</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>3.594278725173667</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-7.134754405928137</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-20.02642292548612</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>3.842483763392169</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-6.615911813949253</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>